--- a/medicine/Enfance/Isabel_Allende/Isabel_Allende.xlsx
+++ b/medicine/Enfance/Isabel_Allende/Isabel_Allende.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabel Allende, née le 2 août 1942 à Lima au Pérou, est une journaliste et écrivaine chilienne, naturalisée américaine d'expression espagnole. Elle aborde des questions liées aux femmes, à la mémoire, à l'imaginaire latino-américain et à sa propre autobiographie. Ses œuvres ont été traduites dans plus de 40 langues.
 </t>
@@ -513,51 +525,128 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines familiales et formation
-Isabel Allende[1], de nationalité chilienne, est née à Lima au Pérou, où son père, Tomás Allende Pesce, cousin germain du président de la République du Chili Salvador Allende, était diplomate.  Elle a des ancêtres basques par son père et portugais et espagnols par Francisca Llona Barros, sa mère[2], morte en 2018. Isabel est la cousine de la femme politique chilienne Isabel Allende Bussi.
-En 1945, après la séparation de ses parents, sa mère déménage avec ses trois enfants à Santiago, au Chili , où ils vivent jusqu'en 1953. Cette année-là, sa mère épouse Ramón Huidobro, également diplomate, qui est affecté en Bolivie puis à Beyrouth[2].
+          <t>Origines familiales et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabel Allende, de nationalité chilienne, est née à Lima au Pérou, où son père, Tomás Allende Pesce, cousin germain du président de la République du Chili Salvador Allende, était diplomate.  Elle a des ancêtres basques par son père et portugais et espagnols par Francisca Llona Barros, sa mère, morte en 2018. Isabel est la cousine de la femme politique chilienne Isabel Allende Bussi.
+En 1945, après la séparation de ses parents, sa mère déménage avec ses trois enfants à Santiago, au Chili , où ils vivent jusqu'en 1953. Cette année-là, sa mère épouse Ramón Huidobro, également diplomate, qui est affecté en Bolivie puis à Beyrouth.
 En Bolivie, elle fréquente une école privée américaine et à Beyrouth une école privée anglaise. En 1958, elle retourne au Chili, où elle achève ses études secondaires. Elle rencontre alors son futur mari, Miguel Frías.
-Carrière au Chili (1959-1975)
-De 1959 à 1965, elle travaille pour la FAO (Food and Agriculture Organization) des Nations unies, à Santiago. En 1962, elle épouse Miguel Frías. L'année suivante naît sa fille Paula.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière au Chili (1959-1975)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1959 à 1965, elle travaille pour la FAO (Food and Agriculture Organization) des Nations unies, à Santiago. En 1962, elle épouse Miguel Frías. L'année suivante naît sa fille Paula.
 Les années 1964-1965 sont occupées par un long séjour en Europe. Elle réside notamment à Bruxelles et en Suisse. Elle retourne en 1966 au Chili, où naît son fils Nicolás.
 À partir de 1967, elle fait partie de la rédaction de la revue Paula. En 1973-1974, elle collabore à la revue pour enfants Mampato. Elle publie deux contes pour enfants, La abuela Panchita (Grand-mère Panchite) et Lauchas y lauchones (Petites et grosses souris), ainsi qu'un recueil d'articles, Civilice a su troglodita (Civilisez votre troglodyte). Elle anime des émissions à la télévision chilienne (chaînes 13 et 7).
 En 1973, sa pièce de théâtre El embajador (L'ambassadeur) est représentée à Santiago. 
-Le coup d'État du 11 septembre, mené par le général Pinochet, cause la mort de son oncle Salvador Allende, président du Chili depuis 1970[3]. Cela rend la position d'Isabel Allende difficile au Chili[réf. nécessaire], alors que la répression frappe les opposants au nouveau régime, dont beaucoup s'exilent pour échapper à la mort.
-L'exil (1975) et ses suites
-En 1975 elle s'installe avec sa famille au Venezuela. Elle y restera treize ans[4]. Elle travaille au journal El Nacional de Caracas, puis dans une école secondaire jusqu'en 1982.
-En 1981, en apprenant que son grand-père, âgé de 99 ans, est en train de mourir, elle commence à lui écrire une lettre, qui deviendra le manuscrit de La Maison aux esprits (La casa de los espíritus), son premier roman[5], une chronique familiale avec des souvenirs d'enfance, et de ceux qui peuplaient la vieille maison habitée par ses grands-parents[2]. Publié l'année suivante, ce roman connaît un immense succès et est adapté au cinéma par Bille August. Il est suivi de De amor y de sombra dans lequel elle raconte l'apparition dans une mine du nord du Chili des corps de paysans tués par les services de sécurité de la dictature[6].
-Séparée de son mari, elle épouse en secondes noces l'avocat Willie Gordon, le 7 juillet 1988, à San Francisco. Elle réside depuis cette date à San Rafael, en Californie. Sa fille Paula meurt le 6 décembre 1992, après avoir été dans le coma durant toute une année, des suites de la porphyrie. Au cours des heures interminables passées dans les couloirs de Madrid puis à son chevet en Californie, cette douloureuse épreuve lui inspire Paula, paru en 1994[7].
-Elle publie en 2014 Le Jeu de Ripper (El juego de Ripper), son premier roman policier[8].
-La même année, elle devient une des premières citoyennes de la République glaciaire[9].
+Le coup d'État du 11 septembre, mené par le général Pinochet, cause la mort de son oncle Salvador Allende, président du Chili depuis 1970. Cela rend la position d'Isabel Allende difficile au Chili[réf. nécessaire], alors que la répression frappe les opposants au nouveau régime, dont beaucoup s'exilent pour échapper à la mort.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'exil (1975) et ses suites</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1975 elle s'installe avec sa famille au Venezuela. Elle y restera treize ans. Elle travaille au journal El Nacional de Caracas, puis dans une école secondaire jusqu'en 1982.
+En 1981, en apprenant que son grand-père, âgé de 99 ans, est en train de mourir, elle commence à lui écrire une lettre, qui deviendra le manuscrit de La Maison aux esprits (La casa de los espíritus), son premier roman, une chronique familiale avec des souvenirs d'enfance, et de ceux qui peuplaient la vieille maison habitée par ses grands-parents. Publié l'année suivante, ce roman connaît un immense succès et est adapté au cinéma par Bille August. Il est suivi de De amor y de sombra dans lequel elle raconte l'apparition dans une mine du nord du Chili des corps de paysans tués par les services de sécurité de la dictature.
+Séparée de son mari, elle épouse en secondes noces l'avocat Willie Gordon, le 7 juillet 1988, à San Francisco. Elle réside depuis cette date à San Rafael, en Californie. Sa fille Paula meurt le 6 décembre 1992, après avoir été dans le coma durant toute une année, des suites de la porphyrie. Au cours des heures interminables passées dans les couloirs de Madrid puis à son chevet en Californie, cette douloureuse épreuve lui inspire Paula, paru en 1994.
+Elle publie en 2014 Le Jeu de Ripper (El juego de Ripper), son premier roman policier.
+La même année, elle devient une des premières citoyennes de la République glaciaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Style et thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand Isabel Allende écrit, elle élabore un contexte en choisissant le lieu et l'époque, et à partir de là, les personnages et l'intrigue viennent d'eux-mêmes. L'humour est partie intégrante de ses œuvres. Avec l'écriture de La ciudad de las bestias, elle s'adresse à un public plus jeune qu'à l'accoutumée.
 Son œuvre est classée dans le mouvement littéraire Post Boom, qui se caractérise par un retour au réalisme et une écriture plus simple (en opposition à la méta-littérature). Elle écrit notamment des textes à but éducatif étudiés en classe, en langue espagnole.
@@ -565,41 +654,87 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Romans
-Trilogie involontaire
-La Maison aux esprits, Fayard, 1984 ((es) La casa de los espíritus, 1982)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Trilogie involontaire</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Maison aux esprits, Fayard, 1984 ((es) La casa de los espíritus, 1982)
 Fille du destin, Grasset, 2000 ((es) Hija de la fortuna, 1999)
-Portrait sépia, Grasset, 2001 ((es) Retrato en sepia, 2000)
-Autres romans
-D’amour et d’ombre, Fayard, 1986 ((es) De amor y de sombra, 1984)
+Portrait sépia, Grasset, 2001 ((es) Retrato en sepia, 2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D’amour et d’ombre, Fayard, 1986 ((es) De amor y de sombra, 1984)
 Eva Luna, Fayard, 1988 ((es) Eva Luna, 1987)
-Le Plan infini, Fayard, 1993 ((es) El plan infinito, 1991), basé sur la vie de William Gordon[10].
+Le Plan infini, Fayard, 1993 ((es) El plan infinito, 1991), basé sur la vie de William Gordon.
 Zorro, Grasset, 2005 ((es) El Zorro: Comienza la leyenda, 2005)En France, cette version de Zorro a été adaptée en comédie musicale aux Folies Bergère
 Inés de mon âme, Grasset, 2008 ((es) Inés del alma mía, 2006)roman historique
 L'Île sous la mer, Grasset, 2011 ((es) La isla bajo el mar, 2009)
@@ -607,58 +742,230 @@
 Le Jeu de Ripper, Grasset, 2015 ((es) El juego de Ripper, 2014)roman policier
 L'Amant japonais, Grasset, 2016 ((es) El amante japonés, 2015)
 Plus loin que l'hiver, Grasset, 2020 ((es) Más allá del invierno, 2017)
-Violetta (2022)
-Autobiographies romancées et mémoires
-Paula, Fayard, 1995 ((es) Paula, 1994)
+Violetta (2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autobiographies romancées et mémoires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Paula, Fayard, 1995 ((es) Paula, 1994)
 Aphrodite, contes recettes et autres aphrodisiaques, Grasset, 2001 ((es) Afrodita, 1997)
 Mon pays réinventé, Grasset, 2003 ((es) Mi país inventado, 2003)
-La Somme de jours, Grasset, 2012 ((es) La suma de los días, 2007)
-Ouvrages de littérature d'enfance et de jeunesse
-(es) La abuela Panchita, 1974
+La Somme de jours, Grasset, 2012 ((es) La suma de los días, 2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(es) La abuela Panchita, 1974
 (es) Lauchas y lauchones, ratas y ratones, 1974
 (es) La gorda de porcelana, 1984
 La Cité des dieux sauvages, Grasset, 2002 ((es) La ciudad de las bestias, 2002)
 Le Royaume du dragon d'or, Grasset, 2004 ((es) El reino del dragón de oro, 2003)
 La Forêt des pygmées, Grasset, 2006 ((es) El bosque de los Pigmeos, 2004)
-(es) Más allá del invierno, 2017
-Recueil de nouvelles
-Les Contes d'Eva Luna, Fayard, 1991 ((es) Cuentos de Eva Luna, 1989)
-Théâtre
-(es) El embajador, 1972
+(es) Más allá del invierno, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les Contes d'Eva Luna, Fayard, 1991 ((es) Cuentos de Eva Luna, 1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(es) El embajador, 1972
 (es) La balada del medio pelo, 1973
 (es) Yo soy la Tránsito Soto, 1973
-(es) La casa de los siete espejos, 1975
-Autre publication
-(es) Amor, 2013
+(es) La casa de los siete espejos, 1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(es) Amor, 2013
 La librairie de la pomme verte, Ed. des Arènes, 2013, 267 p. (ISBN 978-2-35204-244-0), « Book Passage », p. 17-21</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Prix littéraires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 Meilleur roman de l'année du Chili, 1983 pour La Maison aux esprits
@@ -666,73 +973,77 @@
 Livre de l'année, Allemagne, 1984 pour La Maison aux esprits
 Meilleur roman, Mexique, 1985 pour La Maison des esprits
 Auteur de l'année, Allemagne 1986
-Prix Relay 1984[11] pour La Maison aux esprits
+Prix Relay 1984 pour La Maison aux esprits
 Premio Bellas Artes de Narrativa Colima para Obra Publicada (es) 1985 pour D'amour et d'ombre
 Prix Malaparte 1998 pour l'ensemble de son œuvre
 Prix national de littérature (Chili) 2010 pour l'ensemble de son œuvre
 Premio Libro de Oro (en) 2014 pour Le Jeu de Ripper
-Médaille présidentielle de la Liberté[12] 2014
-National Book Foundation Medal for Distinguished Contribution to American Letters[12] 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Médaille présidentielle de la Liberté 2014
+National Book Foundation Medal for Distinguished Contribution to American Letters 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptation de son œuvre au cinéma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>1993 : La Maison aux esprits (The House of the Spirits), film germano-dano-luso-américain réalisé par Bille August, d'après son roman éponyme de 1982.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabel_Allende</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2014 : Doctorat honoris causa de l'Université Harvard[13]
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2014 : Doctorat honoris causa de l'Université Harvard
 (9778) Isabelallende, astéroïde.</t>
         </is>
       </c>
